--- a/documentation/json_tables.xlsx
+++ b/documentation/json_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\OneDrive\Programming\Lua\item shop\Item Shop\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\SkyDrive\Programming\Lua\item shop\Item Shop\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/documentation/json_tables.xlsx
+++ b/documentation/json_tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\SkyDrive\Programming\Lua\item shop\Item Shop\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\OneDrive\Programming\Lua\Item-Shop\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="8790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="8790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3308,11 +3308,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
